--- a/Caxton/others/记账.xlsx
+++ b/Caxton/others/记账.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\yang\Third_yr_grad_English\relevant_file\workspace_zy\JY_completed\Caxton\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D90058F-047C-4B00-B4AD-93F8837C31DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18B25DE-5186-4F2A-930D-BA3947261264}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{642AB60A-0E59-4373-95D0-EEC3AB9996B6}"/>
   </bookViews>
@@ -30,6 +30,17 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>收到</t>
+  </si>
+  <si>
+    <t>支出</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -379,29 +390,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13ED1FCE-D47B-4B32-B126-99F6021D9175}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>20200616</v>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <f>750*3</f>
-        <v>2250</v>
+        <v>20200616</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <f>750*3</f>
@@ -410,27 +422,28 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <f>750*3</f>
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>1.5</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <f>750*2</f>
         <v>1500</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>0.89</v>
-      </c>
-      <c r="C5">
-        <v>75763</v>
-      </c>
-    </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="C6">
-        <v>70693</v>
+        <v>75763</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -438,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>132500</v>
+        <v>70693</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -446,28 +459,28 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>8000</v>
+        <v>132500</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>2700</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="C10">
-        <v>350</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>350</v>
@@ -475,18 +488,18 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="C12">
-        <v>500</v>
+        <v>350</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="C13">
-        <v>350</v>
+        <v>500</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -494,28 +507,31 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>3000</v>
+        <v>350</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>5.2</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>1</v>
+        <v>5.2</v>
       </c>
       <c r="C16">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="C17">
         <v>300</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C17">
-        <v>500</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -525,46 +541,51 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C19">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C20">
-        <v>500</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C21">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C22">
         <v>5000</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <f>SUM(A2:A16)</f>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <f>SUM(A3:A17)</f>
         <v>40.39</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C23">
-        <f>SUM(C2:C21)</f>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <f>SUM(C3:C22)</f>
         <v>307806</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
         <f>1204*24</f>
         <v>28896</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
         <f>1730*12</f>
         <v>20760</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <f>SUM(A26:A27)</f>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <f>SUM(A27:A28)</f>
         <v>49656</v>
       </c>
     </row>
